--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.1737</v>
+        <v>16.4098</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.289400000000001</v>
+        <v>-7.265200000000005</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.1928</v>
+        <v>-10.23850000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.9313</v>
+        <v>-6.837899999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.676700000000003</v>
+        <v>-7.575500000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.16840000000001</v>
+        <v>15.9584</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.7558</v>
+        <v>-12.5921</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.31960000000001</v>
+        <v>-11.15630000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.499300000000002</v>
+        <v>-8.4725</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,10 +893,10 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.00709999999999</v>
+        <v>-12.41229999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.794999999999998</v>
+        <v>-8.726699999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.284999999999997</v>
+        <v>-7.345099999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.19540000000002</v>
+        <v>17.06340000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1029,13 +1029,13 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.52140000000001</v>
+        <v>-11.37870000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.56920000000001</v>
+        <v>16.65190000000002</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.419099999999998</v>
+        <v>-7.629699999999996</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.885399999999999</v>
+        <v>-7.720599999999997</v>
       </c>
       <c r="E38" t="n">
-        <v>16.58950000000001</v>
+        <v>16.62460000000002</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.1792</v>
+        <v>17.2182</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>15.9729</v>
+        <v>16.14139999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.35689999999999</v>
+        <v>16.4258</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.653400000000003</v>
+        <v>-8.469600000000003</v>
       </c>
       <c r="E51" t="n">
-        <v>16.38469999999999</v>
+        <v>16.4182</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.889699999999999</v>
+        <v>-7.816099999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.417899999999996</v>
+        <v>-8.504899999999994</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.52160000000001</v>
+        <v>16.54960000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.20820000000002</v>
+        <v>18.18060000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1607,10 +1607,10 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.3728</v>
+        <v>-10.5435</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.009699999999994</v>
+        <v>-7.186399999999995</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.798400000000006</v>
+        <v>-7.491100000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>17.00410000000001</v>
+        <v>17.08160000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.62660000000001</v>
+        <v>-12.72910000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.0962</v>
+        <v>-11.13860000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.720600000000003</v>
+        <v>-7.717700000000007</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.20169999999999</v>
+        <v>-12.4275</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.9534</v>
+        <v>-13.96410000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.910699999999999</v>
+        <v>-8.599600000000001</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.4366</v>
+        <v>16.45600000000001</v>
       </c>
     </row>
     <row r="89">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.19</v>
+        <v>-11.1869</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.7062</v>
+        <v>16.7723</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.590599999999998</v>
+        <v>-7.624399999999997</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
